--- a/Dataset/df_merge.xlsx
+++ b/Dataset/df_merge.xlsx
@@ -5197,8 +5197,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
           <t>MOTO-SD</t>
@@ -13266,8 +13270,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
       <c r="R110" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -14783,8 +14791,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
       <c r="R123" t="inlineStr">
         <is>
           <t>PEATON-SD</t>
@@ -17113,8 +17125,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
       <c r="R143" t="inlineStr">
         <is>
           <t>SD-SD</t>
@@ -21900,8 +21916,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
       <c r="R184" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -22364,8 +22384,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
       <c r="R188" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -22477,8 +22501,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
       <c r="R189" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -22590,8 +22618,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
       <c r="R190" t="inlineStr">
         <is>
           <t>AUTO-AUTO</t>
@@ -31712,8 +31744,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr"/>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
       <c r="R268" t="inlineStr">
         <is>
           <t>MOTO-PASAJEROS</t>
@@ -38845,8 +38881,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P329" t="inlineStr"/>
-      <c r="Q329" t="inlineStr"/>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
       <c r="R329" t="inlineStr">
         <is>
           <t>PEATON-AUTO</t>
@@ -54013,7 +54053,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>1900-01-02 00:00:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="H459" t="n">
@@ -54247,7 +54287,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>1900-01-14 07:12:00</t>
+          <t>07:12:00</t>
         </is>
       </c>
       <c r="H461" t="n">
@@ -60682,7 +60722,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>1900-01-04 18:40:00</t>
+          <t>18:40:00</t>
         </is>
       </c>
       <c r="H516" t="n">
@@ -63254,11 +63294,7 @@
       <c r="F538" t="n">
         <v>18</v>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="G538" t="inlineStr"/>
       <c r="H538" t="n">
         <v>12</v>
       </c>
@@ -66571,8 +66607,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P566" t="inlineStr"/>
-      <c r="Q566" t="inlineStr"/>
+      <c r="P566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>0</v>
+      </c>
       <c r="R566" t="inlineStr">
         <is>
           <t>MOTO-OBJETO FIJO</t>
@@ -68205,8 +68245,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P580" t="inlineStr"/>
-      <c r="Q580" t="inlineStr"/>
+      <c r="P580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>0</v>
+      </c>
       <c r="R580" t="inlineStr">
         <is>
           <t>PEATON-CARGAS</t>
@@ -75689,8 +75733,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P644" t="inlineStr"/>
-      <c r="Q644" t="inlineStr"/>
+      <c r="P644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>0</v>
+      </c>
       <c r="R644" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
